--- a/data/pca/factorExposure/factorExposure_2010-01-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.003664748347941516</v>
+        <v>0.01695618322859093</v>
       </c>
       <c r="C2">
-        <v>-0.01319914667116077</v>
+        <v>-0.001193152894462872</v>
       </c>
       <c r="D2">
-        <v>0.003190177310230142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006135673747066784</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002312860506648467</v>
+      </c>
+      <c r="F2">
+        <v>-0.01135701227879695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03028492756125016</v>
+        <v>0.09380233258503193</v>
       </c>
       <c r="C4">
-        <v>-0.1227035642441413</v>
+        <v>-0.01579572927325705</v>
       </c>
       <c r="D4">
-        <v>-0.01166254208259587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08408316183278594</v>
+      </c>
+      <c r="E4">
+        <v>0.02857422173491575</v>
+      </c>
+      <c r="F4">
+        <v>0.03082817192395586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03758416117676296</v>
+        <v>0.157043258747268</v>
       </c>
       <c r="C6">
-        <v>-0.1122668460664729</v>
+        <v>-0.02523716044365881</v>
       </c>
       <c r="D6">
-        <v>0.0389938086822038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02299314299270819</v>
+      </c>
+      <c r="E6">
+        <v>0.009061137515009646</v>
+      </c>
+      <c r="F6">
+        <v>0.04659316528734665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01040226090417499</v>
+        <v>0.06239090374038069</v>
       </c>
       <c r="C7">
-        <v>-0.07929533926874409</v>
+        <v>0.0008914222008654934</v>
       </c>
       <c r="D7">
-        <v>0.003972712597377436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05142495894437946</v>
+      </c>
+      <c r="E7">
+        <v>0.009435209280531298</v>
+      </c>
+      <c r="F7">
+        <v>0.04603093612823658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002614836331698323</v>
+        <v>0.05720399473150414</v>
       </c>
       <c r="C8">
-        <v>-0.05980016287535366</v>
+        <v>0.01333157803414209</v>
       </c>
       <c r="D8">
-        <v>0.02208848525832597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03336449850580831</v>
+      </c>
+      <c r="E8">
+        <v>0.01758633667907445</v>
+      </c>
+      <c r="F8">
+        <v>-0.02802467544614638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02542081879912979</v>
+        <v>0.07127926521579545</v>
       </c>
       <c r="C9">
-        <v>-0.1015483305499694</v>
+        <v>-0.01156615553034546</v>
       </c>
       <c r="D9">
-        <v>-0.01969172368651443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08596270606266196</v>
+      </c>
+      <c r="E9">
+        <v>0.02292866183894933</v>
+      </c>
+      <c r="F9">
+        <v>0.04735458155194164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01127347093582221</v>
+        <v>0.09563939331857553</v>
       </c>
       <c r="C10">
-        <v>-0.0234441164600631</v>
+        <v>-0.01947758525936536</v>
       </c>
       <c r="D10">
-        <v>0.1210199405621124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1703823575830836</v>
+      </c>
+      <c r="E10">
+        <v>-0.03658763094587773</v>
+      </c>
+      <c r="F10">
+        <v>-0.05298473809051376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.02955976895572627</v>
+        <v>0.08789166629959136</v>
       </c>
       <c r="C11">
-        <v>-0.1086160407681808</v>
+        <v>-0.01113172137111207</v>
       </c>
       <c r="D11">
-        <v>-0.025151217805172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1161104372306787</v>
+      </c>
+      <c r="E11">
+        <v>0.04601309367880376</v>
+      </c>
+      <c r="F11">
+        <v>0.02118732678038588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02711911019723115</v>
+        <v>0.09186705546539202</v>
       </c>
       <c r="C12">
-        <v>-0.1189493173438323</v>
+        <v>-0.008177605412425258</v>
       </c>
       <c r="D12">
-        <v>-0.0228017200955516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317196667035773</v>
+      </c>
+      <c r="E12">
+        <v>0.04733341401570386</v>
+      </c>
+      <c r="F12">
+        <v>0.02528219434805765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.009148761143637005</v>
+        <v>0.04251071227642932</v>
       </c>
       <c r="C13">
-        <v>-0.04089664053174787</v>
+        <v>-0.003600175195749957</v>
       </c>
       <c r="D13">
-        <v>-0.02698240563413229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05102279061956958</v>
+      </c>
+      <c r="E13">
+        <v>-0.009266690172295146</v>
+      </c>
+      <c r="F13">
+        <v>0.002045163939797776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01605409627245101</v>
+        <v>0.02289884125078487</v>
       </c>
       <c r="C14">
-        <v>-0.02408094001414855</v>
+        <v>-0.01399158354046815</v>
       </c>
       <c r="D14">
-        <v>0.006972934596463391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03318398262831167</v>
+      </c>
+      <c r="E14">
+        <v>0.01701366936697891</v>
+      </c>
+      <c r="F14">
+        <v>0.01432850039187271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01043618997565336</v>
+        <v>0.0323385104059294</v>
       </c>
       <c r="C15">
-        <v>-0.02834130639148713</v>
+        <v>-0.004935052610274077</v>
       </c>
       <c r="D15">
-        <v>-0.01365069079504625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04545690828377803</v>
+      </c>
+      <c r="E15">
+        <v>0.006051575522465449</v>
+      </c>
+      <c r="F15">
+        <v>0.02267199061448635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.01879465713438536</v>
+        <v>0.07394384961083088</v>
       </c>
       <c r="C16">
-        <v>-0.1110875010633106</v>
+        <v>-0.002214492434602509</v>
       </c>
       <c r="D16">
-        <v>-0.00601172469652053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1257448881952261</v>
+      </c>
+      <c r="E16">
+        <v>0.06143424336378606</v>
+      </c>
+      <c r="F16">
+        <v>0.02424695723514695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03158857018628627</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003434273168467789</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01983894208828008</v>
+      </c>
+      <c r="E18">
+        <v>-0.006572712496345546</v>
+      </c>
+      <c r="F18">
+        <v>-0.003444532288671992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01200110654136082</v>
+        <v>0.06101703891576351</v>
       </c>
       <c r="C20">
-        <v>-0.06833427195721008</v>
+        <v>-0.0006803328834389223</v>
       </c>
       <c r="D20">
-        <v>0.00723860428356591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07661034207453932</v>
+      </c>
+      <c r="E20">
+        <v>0.05563584360263952</v>
+      </c>
+      <c r="F20">
+        <v>0.02276141253637395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01253080167968265</v>
+        <v>0.04023772767710685</v>
       </c>
       <c r="C21">
-        <v>-0.02244008084814757</v>
+        <v>-0.006688858418280795</v>
       </c>
       <c r="D21">
-        <v>-0.0009763918119864266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03646777671871194</v>
+      </c>
+      <c r="E21">
+        <v>-0.005958240052432859</v>
+      </c>
+      <c r="F21">
+        <v>-0.02436560978321011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.004822000718826189</v>
+        <v>0.04395836602911567</v>
       </c>
       <c r="C22">
-        <v>-0.03029010140851244</v>
+        <v>-0.001230717219620235</v>
       </c>
       <c r="D22">
-        <v>0.04157980198158723</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002602139617765628</v>
+      </c>
+      <c r="E22">
+        <v>0.02891960232088513</v>
+      </c>
+      <c r="F22">
+        <v>-0.03333456460895011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.00480986178529145</v>
+        <v>0.04394389610428982</v>
       </c>
       <c r="C23">
-        <v>-0.03022064424339412</v>
+        <v>-0.001226464561371943</v>
       </c>
       <c r="D23">
-        <v>0.04167691036886961</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002606930427250972</v>
+      </c>
+      <c r="E23">
+        <v>0.02912140761033585</v>
+      </c>
+      <c r="F23">
+        <v>-0.03329738210212394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.01904140961018673</v>
+        <v>0.08025842203399522</v>
       </c>
       <c r="C24">
-        <v>-0.1147082152535737</v>
+        <v>-0.002691724010101795</v>
       </c>
       <c r="D24">
-        <v>-0.01597525366246504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1203975899324801</v>
+      </c>
+      <c r="E24">
+        <v>0.0490279221872304</v>
+      </c>
+      <c r="F24">
+        <v>0.02527871399516634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02451886739969055</v>
+        <v>0.08509375534458255</v>
       </c>
       <c r="C25">
-        <v>-0.1196922361112449</v>
+        <v>-0.004919319155264969</v>
       </c>
       <c r="D25">
-        <v>-0.01111897482222248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1088597698601912</v>
+      </c>
+      <c r="E25">
+        <v>0.03237585555051371</v>
+      </c>
+      <c r="F25">
+        <v>0.02583066794729408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02372568318092522</v>
+        <v>0.0577193174373364</v>
       </c>
       <c r="C26">
-        <v>-0.05103890843683735</v>
+        <v>-0.01475895724697457</v>
       </c>
       <c r="D26">
-        <v>0.02231921377911355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03990882531576549</v>
+      </c>
+      <c r="E26">
+        <v>0.02772338085656044</v>
+      </c>
+      <c r="F26">
+        <v>-0.01024512376614346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.004064149118367697</v>
+        <v>0.1408538890733095</v>
       </c>
       <c r="C28">
-        <v>-0.02244609194652901</v>
+        <v>-0.01894871359371628</v>
       </c>
       <c r="D28">
-        <v>0.1672118077862343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2637504329782767</v>
+      </c>
+      <c r="E28">
+        <v>-0.06852793560243323</v>
+      </c>
+      <c r="F28">
+        <v>0.008716057908514168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01295488606832904</v>
+        <v>0.0275798824239077</v>
       </c>
       <c r="C29">
-        <v>-0.02858605367634128</v>
+        <v>-0.008157113393405729</v>
       </c>
       <c r="D29">
-        <v>0.01244426324677653</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03271811434106698</v>
+      </c>
+      <c r="E29">
+        <v>0.01136738712315395</v>
+      </c>
+      <c r="F29">
+        <v>-0.01028767024344011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.01586839341541715</v>
+        <v>0.0618315016071766</v>
       </c>
       <c r="C30">
-        <v>-0.1255826043159652</v>
+        <v>-0.004022377145991697</v>
       </c>
       <c r="D30">
-        <v>-0.0195081386586183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08739726450370709</v>
+      </c>
+      <c r="E30">
+        <v>0.01883762125871645</v>
+      </c>
+      <c r="F30">
+        <v>0.08283416011779562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02176729207395556</v>
+        <v>0.04997326279715996</v>
       </c>
       <c r="C31">
-        <v>-0.03676939035305216</v>
+        <v>-0.01530245610463499</v>
       </c>
       <c r="D31">
-        <v>0.006412448252819111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02483935989408478</v>
+      </c>
+      <c r="E31">
+        <v>0.02748883104031</v>
+      </c>
+      <c r="F31">
+        <v>-0.002697428612782824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.007282061764920245</v>
+        <v>0.04998382697325376</v>
       </c>
       <c r="C32">
-        <v>-0.06054478106349461</v>
+        <v>0.001288419792864501</v>
       </c>
       <c r="D32">
-        <v>0.03345501527161708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03576162145921252</v>
+      </c>
+      <c r="E32">
+        <v>0.03089716485524687</v>
+      </c>
+      <c r="F32">
+        <v>0.002288764795345038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02272383676362742</v>
+        <v>0.08959113644594699</v>
       </c>
       <c r="C33">
-        <v>-0.1144075899664661</v>
+        <v>-0.00828843023155804</v>
       </c>
       <c r="D33">
-        <v>-0.01814982242755027</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09849387019837037</v>
+      </c>
+      <c r="E33">
+        <v>0.04409064659658414</v>
+      </c>
+      <c r="F33">
+        <v>0.03543103057531882</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02614211583032256</v>
+        <v>0.06845573561837903</v>
       </c>
       <c r="C34">
-        <v>-0.09669502698145495</v>
+        <v>-0.01130686637225405</v>
       </c>
       <c r="D34">
-        <v>-0.009828178795203818</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.106546771590572</v>
+      </c>
+      <c r="E34">
+        <v>0.03451643287693063</v>
+      </c>
+      <c r="F34">
+        <v>0.03330529790152306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003912486165494512</v>
+        <v>0.02383191643387525</v>
       </c>
       <c r="C35">
-        <v>-0.01640039473836113</v>
+        <v>-0.002435425189853666</v>
       </c>
       <c r="D35">
-        <v>-0.0006252531391794322</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01202249434285689</v>
+      </c>
+      <c r="E35">
+        <v>0.01163599854271112</v>
+      </c>
+      <c r="F35">
+        <v>0.0009405295760965225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01085739730509435</v>
+        <v>0.02755960006782174</v>
       </c>
       <c r="C36">
-        <v>-0.02932917724338783</v>
+        <v>-0.007217539400112962</v>
       </c>
       <c r="D36">
-        <v>-0.009331149573124361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0394441254798302</v>
+      </c>
+      <c r="E36">
+        <v>0.01613951705531654</v>
+      </c>
+      <c r="F36">
+        <v>0.01518302832720615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.000390982543976933</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0001015879075943064</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0003259548005477223</v>
+      </c>
+      <c r="E37">
+        <v>-0.0003218451589043265</v>
+      </c>
+      <c r="F37">
+        <v>0.0007100960080055936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0005409076936463207</v>
+        <v>0.001212709226778505</v>
       </c>
       <c r="C38">
-        <v>-0.003801610156177576</v>
+        <v>-0.0001699644430613612</v>
       </c>
       <c r="D38">
-        <v>0.001313212117243968</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007930819875407374</v>
+      </c>
+      <c r="E38">
+        <v>0.0009619741204580477</v>
+      </c>
+      <c r="F38">
+        <v>-0.0007250385218323156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04224219241354623</v>
+        <v>0.1058112790668082</v>
       </c>
       <c r="C39">
-        <v>-0.1752608227047069</v>
+        <v>-0.01660460379396464</v>
       </c>
       <c r="D39">
-        <v>-0.03500030875504732</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1537365810419971</v>
+      </c>
+      <c r="E39">
+        <v>0.05903756798211508</v>
+      </c>
+      <c r="F39">
+        <v>0.02785597883865077</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01118666806339155</v>
+        <v>0.0411465590528228</v>
       </c>
       <c r="C40">
-        <v>-0.01422952355991422</v>
+        <v>-0.007203439773769834</v>
       </c>
       <c r="D40">
-        <v>0.01022531814179536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03176654170732503</v>
+      </c>
+      <c r="E40">
+        <v>0.002754703223708406</v>
+      </c>
+      <c r="F40">
+        <v>-0.01561710097771147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01129871353762677</v>
+        <v>0.02765875242680639</v>
       </c>
       <c r="C41">
-        <v>-0.02121678595432099</v>
+        <v>-0.006619012412166095</v>
       </c>
       <c r="D41">
-        <v>0.01962005986985043</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01071366512203274</v>
+      </c>
+      <c r="E41">
+        <v>0.01273081568059643</v>
+      </c>
+      <c r="F41">
+        <v>-0.006580884294287524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01324983337742101</v>
+        <v>0.04059609360605796</v>
       </c>
       <c r="C43">
-        <v>-0.02824478156718066</v>
+        <v>-0.006752029017975758</v>
       </c>
       <c r="D43">
-        <v>0.01302661569152183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02077119025061458</v>
+      </c>
+      <c r="E43">
+        <v>0.02513703983953664</v>
+      </c>
+      <c r="F43">
+        <v>-0.01245472858203733</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03147475780819051</v>
+        <v>0.0798058553295543</v>
       </c>
       <c r="C44">
-        <v>-0.1317812188518389</v>
+        <v>-0.02048621914999767</v>
       </c>
       <c r="D44">
-        <v>0.002986820340005943</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0989783616034679</v>
+      </c>
+      <c r="E44">
+        <v>0.06606295416480859</v>
+      </c>
+      <c r="F44">
+        <v>0.1558966071285275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005487657544683258</v>
+        <v>0.02345561773741433</v>
       </c>
       <c r="C46">
-        <v>-0.004641625101189723</v>
+        <v>-0.003733845464600819</v>
       </c>
       <c r="D46">
-        <v>0.01769615213587703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01323963003600131</v>
+      </c>
+      <c r="E46">
+        <v>0.02205481974499847</v>
+      </c>
+      <c r="F46">
+        <v>-0.004299963462549746</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01026090932245552</v>
+        <v>0.05095860928969183</v>
       </c>
       <c r="C47">
-        <v>-0.03340010836500749</v>
+        <v>-0.003558251368221059</v>
       </c>
       <c r="D47">
-        <v>0.0306745476763953</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01398768897410004</v>
+      </c>
+      <c r="E47">
+        <v>0.02360720180011923</v>
+      </c>
+      <c r="F47">
+        <v>-0.0330433992739894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01186025972262703</v>
+        <v>0.04943002373798765</v>
       </c>
       <c r="C48">
-        <v>-0.05081294139197162</v>
+        <v>-0.002627185383653739</v>
       </c>
       <c r="D48">
-        <v>-0.009533362221956623</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05006782441298537</v>
+      </c>
+      <c r="E48">
+        <v>-0.006453759051487578</v>
+      </c>
+      <c r="F48">
+        <v>0.009103967916441521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.037398680467967</v>
+        <v>0.1995454012778458</v>
       </c>
       <c r="C49">
-        <v>-0.2016534301560399</v>
+        <v>-0.01874290158880266</v>
       </c>
       <c r="D49">
-        <v>0.06876127190193723</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008453332368010411</v>
+      </c>
+      <c r="E49">
+        <v>0.0307586638380572</v>
+      </c>
+      <c r="F49">
+        <v>0.03877773840695208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01839681884918884</v>
+        <v>0.0505074563179304</v>
       </c>
       <c r="C50">
-        <v>-0.04121340321171321</v>
+        <v>-0.01125646127371654</v>
       </c>
       <c r="D50">
-        <v>0.01414105953783085</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02348730645837438</v>
+      </c>
+      <c r="E50">
+        <v>0.0291794158251754</v>
+      </c>
+      <c r="F50">
+        <v>0.008403490210524714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0004609437932582893</v>
+        <v>0.0009494712779656067</v>
       </c>
       <c r="C51">
-        <v>-0.00248630742522785</v>
+        <v>-0.0002708045781581103</v>
       </c>
       <c r="D51">
-        <v>0.003231496307778088</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.000729205496547473</v>
+      </c>
+      <c r="E51">
+        <v>4.491592034643617e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.002800345039772327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.0301865254441822</v>
+        <v>0.1460399762481132</v>
       </c>
       <c r="C52">
-        <v>-0.1503637749760262</v>
+        <v>-0.01546113167516738</v>
       </c>
       <c r="D52">
-        <v>-0.0156201615103108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04581108427345161</v>
+      </c>
+      <c r="E52">
+        <v>0.02086505299801212</v>
+      </c>
+      <c r="F52">
+        <v>0.04093781642697771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03145305073758534</v>
+        <v>0.1726116283308669</v>
       </c>
       <c r="C53">
-        <v>-0.1705988383055489</v>
+        <v>-0.01872389447301149</v>
       </c>
       <c r="D53">
-        <v>0.01863531261166321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005407896297173357</v>
+      </c>
+      <c r="E53">
+        <v>0.03145919742008545</v>
+      </c>
+      <c r="F53">
+        <v>0.07265026353830834</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01555637384741827</v>
+        <v>0.02238592742926457</v>
       </c>
       <c r="C54">
-        <v>-0.04347446754514637</v>
+        <v>-0.01275864874355591</v>
       </c>
       <c r="D54">
-        <v>0.01280474273203193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03349814519782721</v>
+      </c>
+      <c r="E54">
+        <v>0.01855024326089739</v>
+      </c>
+      <c r="F54">
+        <v>-0.003283678039083446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02422252192059808</v>
+        <v>0.1140490292043451</v>
       </c>
       <c r="C55">
-        <v>-0.08654045541537539</v>
+        <v>-0.01649223368437378</v>
       </c>
       <c r="D55">
-        <v>-0.001504298981480111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009168010787212409</v>
+      </c>
+      <c r="E55">
+        <v>0.02793957961737694</v>
+      </c>
+      <c r="F55">
+        <v>0.04690549420526065</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03234490651043977</v>
+        <v>0.1771103514000048</v>
       </c>
       <c r="C56">
-        <v>-0.158490067642884</v>
+        <v>-0.01601722665837061</v>
       </c>
       <c r="D56">
-        <v>0.03225334446731921</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001386050643915196</v>
+      </c>
+      <c r="E56">
+        <v>0.03614824687024903</v>
+      </c>
+      <c r="F56">
+        <v>0.0512465363338481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01268706860125107</v>
+        <v>0.04696066292146992</v>
       </c>
       <c r="C58">
-        <v>-0.0506151823678135</v>
+        <v>-0.001057098102023595</v>
       </c>
       <c r="D58">
-        <v>-0.001064297253417767</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06690383944784256</v>
+      </c>
+      <c r="E58">
+        <v>0.02760916436496328</v>
+      </c>
+      <c r="F58">
+        <v>-0.03619938912099457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01187334303090924</v>
+        <v>0.1672604093614694</v>
       </c>
       <c r="C59">
-        <v>-0.07683349438115057</v>
+        <v>-0.01955494895421598</v>
       </c>
       <c r="D59">
-        <v>0.1807227524827812</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2182620512869785</v>
+      </c>
+      <c r="E59">
+        <v>-0.04559496344419206</v>
+      </c>
+      <c r="F59">
+        <v>-0.03525571805537556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.02542027465404025</v>
+        <v>0.2314428371099627</v>
       </c>
       <c r="C60">
-        <v>-0.2735140003395283</v>
+        <v>0.0025444156177392</v>
       </c>
       <c r="D60">
-        <v>0.01319101339123797</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04171288629821528</v>
+      </c>
+      <c r="E60">
+        <v>0.01124347911763028</v>
+      </c>
+      <c r="F60">
+        <v>-0.006227537282189672</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.02967879890991494</v>
+        <v>0.08253362334832072</v>
       </c>
       <c r="C61">
-        <v>-0.1293048223478867</v>
+        <v>-0.01262769266777092</v>
       </c>
       <c r="D61">
-        <v>-0.01115386017574545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1155029885392828</v>
+      </c>
+      <c r="E61">
+        <v>0.03830611052357365</v>
+      </c>
+      <c r="F61">
+        <v>0.01106208514852589</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.03429897146203437</v>
+        <v>0.1705791519098028</v>
       </c>
       <c r="C62">
-        <v>-0.1628518102882177</v>
+        <v>-0.01944307416053722</v>
       </c>
       <c r="D62">
-        <v>0.02682169537992967</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007174023271410963</v>
+      </c>
+      <c r="E62">
+        <v>0.03561599636884703</v>
+      </c>
+      <c r="F62">
+        <v>0.03476097807340442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01203270740860527</v>
+        <v>0.04534189743151389</v>
       </c>
       <c r="C63">
-        <v>-0.05643218752205672</v>
+        <v>-0.002528723704130518</v>
       </c>
       <c r="D63">
-        <v>0.0003249912498638483</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05732650318767482</v>
+      </c>
+      <c r="E63">
+        <v>0.02081654686740141</v>
+      </c>
+      <c r="F63">
+        <v>0.005334685426315264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02322653971213882</v>
+        <v>0.1108116595098907</v>
       </c>
       <c r="C64">
-        <v>-0.1000306207740519</v>
+        <v>-0.01183282348260937</v>
       </c>
       <c r="D64">
-        <v>0.008880013738794962</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04143419836231915</v>
+      </c>
+      <c r="E64">
+        <v>0.02337958064294734</v>
+      </c>
+      <c r="F64">
+        <v>0.02589538292334429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.0379921126877942</v>
+        <v>0.1478357091171485</v>
       </c>
       <c r="C65">
-        <v>-0.1073719208461944</v>
+        <v>-0.03225505812061425</v>
       </c>
       <c r="D65">
-        <v>0.02216928249959813</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04246567498014209</v>
+      </c>
+      <c r="E65">
+        <v>0.003383667925908613</v>
+      </c>
+      <c r="F65">
+        <v>0.04058979858354181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04088157677682015</v>
+        <v>0.1255031646198889</v>
       </c>
       <c r="C66">
-        <v>-0.2025415311407125</v>
+        <v>-0.01470370106923628</v>
       </c>
       <c r="D66">
-        <v>-0.01517531455309961</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.142083336473761</v>
+      </c>
+      <c r="E66">
+        <v>0.06651974739425683</v>
+      </c>
+      <c r="F66">
+        <v>0.03049943695226142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01478128532755151</v>
+        <v>0.06083908069128496</v>
       </c>
       <c r="C67">
-        <v>-0.06373079645823901</v>
+        <v>-0.003249561717143259</v>
       </c>
       <c r="D67">
-        <v>-0.003494548531916138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05620857740940809</v>
+      </c>
+      <c r="E67">
+        <v>0.01794243600096995</v>
+      </c>
+      <c r="F67">
+        <v>-0.03340646519739184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01475571063582905</v>
+        <v>0.1164059357716717</v>
       </c>
       <c r="C68">
-        <v>-0.01825202825178161</v>
+        <v>-0.02906096193929855</v>
       </c>
       <c r="D68">
-        <v>0.1608685427733459</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2600056907385939</v>
+      </c>
+      <c r="E68">
+        <v>-0.08653798353672139</v>
+      </c>
+      <c r="F68">
+        <v>0.005140515619523759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.005616806761673972</v>
+        <v>0.03948741668055389</v>
       </c>
       <c r="C69">
-        <v>-0.03155514563077342</v>
+        <v>-0.001290285820194614</v>
       </c>
       <c r="D69">
-        <v>0.006217439833741825</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007535825335316005</v>
+      </c>
+      <c r="E69">
+        <v>0.02331504130901258</v>
+      </c>
+      <c r="F69">
+        <v>-0.001156192400672571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0014197841714614</v>
+        <v>0.06560425692542729</v>
       </c>
       <c r="C70">
-        <v>-0.0317969355464392</v>
+        <v>0.02788965141544313</v>
       </c>
       <c r="D70">
-        <v>-0.0002696513964818064</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02551576506702486</v>
+      </c>
+      <c r="E70">
+        <v>-0.03997445952133007</v>
+      </c>
+      <c r="F70">
+        <v>-0.1863116510097719</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.01869081146920182</v>
+        <v>0.1364724311736306</v>
       </c>
       <c r="C71">
-        <v>-0.02340395547677805</v>
+        <v>-0.03403276123045735</v>
       </c>
       <c r="D71">
-        <v>0.1713744826085011</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2742611289877704</v>
+      </c>
+      <c r="E71">
+        <v>-0.09663350030464052</v>
+      </c>
+      <c r="F71">
+        <v>0.01205914145652228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03592831423219942</v>
+        <v>0.1419805582802687</v>
       </c>
       <c r="C72">
-        <v>-0.1162991158817959</v>
+        <v>-0.02592626278542325</v>
       </c>
       <c r="D72">
-        <v>0.04134327917103522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0011920027167075</v>
+      </c>
+      <c r="E72">
+        <v>0.03881377999020975</v>
+      </c>
+      <c r="F72">
+        <v>0.03525173547137148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03374933988962715</v>
+        <v>0.2010398515035978</v>
       </c>
       <c r="C73">
-        <v>-0.2019614532736826</v>
+        <v>-0.0127303014939902</v>
       </c>
       <c r="D73">
-        <v>0.06536936669955616</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01688271896235451</v>
+      </c>
+      <c r="E73">
+        <v>0.06427497587253544</v>
+      </c>
+      <c r="F73">
+        <v>0.03858005575536998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.01963864533059527</v>
+        <v>0.09499655656929742</v>
       </c>
       <c r="C74">
-        <v>-0.1106204875658484</v>
+        <v>-0.0132183706979022</v>
       </c>
       <c r="D74">
-        <v>0.02851263372904881</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01773979313713408</v>
+      </c>
+      <c r="E74">
+        <v>0.04446873232986147</v>
+      </c>
+      <c r="F74">
+        <v>0.05630559252403873</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04112612853412206</v>
+        <v>0.1284667817407385</v>
       </c>
       <c r="C75">
-        <v>-0.1311403797550722</v>
+        <v>-0.0276437311962576</v>
       </c>
       <c r="D75">
-        <v>0.03816668647917056</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03049721177661814</v>
+      </c>
+      <c r="E75">
+        <v>0.05853200669258278</v>
+      </c>
+      <c r="F75">
+        <v>0.01804493334546974</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0004628459718362664</v>
+        <v>0.001138311579684474</v>
       </c>
       <c r="C76">
-        <v>-0.003463903284865696</v>
+        <v>-0.0003160274015544224</v>
       </c>
       <c r="D76">
-        <v>0.004143803349315873</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0009333024081453403</v>
+      </c>
+      <c r="E76">
+        <v>9.850679557809327e-05</v>
+      </c>
+      <c r="F76">
+        <v>0.001189038369721154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02468013870726557</v>
+        <v>0.08396940596495958</v>
       </c>
       <c r="C77">
-        <v>-0.1032742849596577</v>
+        <v>-0.008529847857445831</v>
       </c>
       <c r="D77">
-        <v>-0.04347933620793289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1133400789920044</v>
+      </c>
+      <c r="E77">
+        <v>0.03747522072181259</v>
+      </c>
+      <c r="F77">
+        <v>0.02971506680733778</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05435066050428242</v>
+        <v>0.1001856536879469</v>
       </c>
       <c r="C78">
-        <v>-0.134310407135748</v>
+        <v>-0.03940541527084619</v>
       </c>
       <c r="D78">
-        <v>0.0205928806412316</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.117007529272071</v>
+      </c>
+      <c r="E78">
+        <v>0.07532598332356975</v>
+      </c>
+      <c r="F78">
+        <v>0.0448116707629713</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.03601845138220708</v>
+        <v>0.1644835700266888</v>
       </c>
       <c r="C79">
-        <v>-0.1432606883076882</v>
+        <v>-0.0221807842753645</v>
       </c>
       <c r="D79">
-        <v>0.04019512748813237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0159106545777051</v>
+      </c>
+      <c r="E79">
+        <v>0.04684781452384095</v>
+      </c>
+      <c r="F79">
+        <v>0.01102927326306078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.008268416879763978</v>
+        <v>0.08260511229681522</v>
       </c>
       <c r="C80">
-        <v>-0.08477005446361177</v>
+        <v>0.000537179566730198</v>
       </c>
       <c r="D80">
-        <v>0.009832007802588494</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0569106407424155</v>
+      </c>
+      <c r="E80">
+        <v>0.03698264680689109</v>
+      </c>
+      <c r="F80">
+        <v>-0.02457891227937729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04283636178826247</v>
+        <v>0.1220364224345647</v>
       </c>
       <c r="C81">
-        <v>-0.1431330320740965</v>
+        <v>-0.03145426206719541</v>
       </c>
       <c r="D81">
-        <v>0.02490759873743005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01595196180680529</v>
+      </c>
+      <c r="E81">
+        <v>0.05846287787457731</v>
+      </c>
+      <c r="F81">
+        <v>0.01678105848971274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.03727748687456438</v>
+        <v>0.1663789768118853</v>
       </c>
       <c r="C82">
-        <v>-0.1635190670086261</v>
+        <v>-0.02394843959249355</v>
       </c>
       <c r="D82">
-        <v>0.03606550337554489</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004070636138710973</v>
+      </c>
+      <c r="E82">
+        <v>0.02826127630707809</v>
+      </c>
+      <c r="F82">
+        <v>0.07988858413593108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01811076891689587</v>
+        <v>0.0606902320164947</v>
       </c>
       <c r="C83">
-        <v>-0.06862971916877648</v>
+        <v>-0.003176414085472284</v>
       </c>
       <c r="D83">
-        <v>0.004837870673996079</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05033559765312236</v>
+      </c>
+      <c r="E83">
+        <v>0.004942074617828146</v>
+      </c>
+      <c r="F83">
+        <v>-0.03189341861860223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02625065018702482</v>
+        <v>0.05787406718119998</v>
       </c>
       <c r="C84">
-        <v>-0.07728405435433831</v>
+        <v>-0.01101433411573132</v>
       </c>
       <c r="D84">
-        <v>-0.009447084189407045</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06552393290226265</v>
+      </c>
+      <c r="E84">
+        <v>0.007848212303722934</v>
+      </c>
+      <c r="F84">
+        <v>0.003792025677745369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03747701050851221</v>
+        <v>0.1368412262319466</v>
       </c>
       <c r="C85">
-        <v>-0.1204584186473143</v>
+        <v>-0.02753268556129445</v>
       </c>
       <c r="D85">
-        <v>0.02301764047273368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01139552049398609</v>
+      </c>
+      <c r="E85">
+        <v>0.03909374279309816</v>
+      </c>
+      <c r="F85">
+        <v>0.04565514703803418</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.007703221662248875</v>
+        <v>0.09374764676657672</v>
       </c>
       <c r="C86">
-        <v>-0.08824604717809485</v>
+        <v>0.006343615433756601</v>
       </c>
       <c r="D86">
-        <v>0.2399562990252457</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04140695537029179</v>
+      </c>
+      <c r="E86">
+        <v>0.212092560222718</v>
+      </c>
+      <c r="F86">
+        <v>-0.9087519059031375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.03852144606058289</v>
+        <v>0.09715507589806542</v>
       </c>
       <c r="C87">
-        <v>-0.1071596502469413</v>
+        <v>-0.02051568250936164</v>
       </c>
       <c r="D87">
-        <v>-0.05370279476958568</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0947194022714991</v>
+      </c>
+      <c r="E87">
+        <v>-0.05150973370500846</v>
+      </c>
+      <c r="F87">
+        <v>0.05305629859565357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01298177322428771</v>
+        <v>0.06056684478925664</v>
       </c>
       <c r="C88">
-        <v>-0.05912649925465629</v>
+        <v>-0.002398617778769591</v>
       </c>
       <c r="D88">
-        <v>-0.002084898374048272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0503519985184703</v>
+      </c>
+      <c r="E88">
+        <v>0.02490414909890505</v>
+      </c>
+      <c r="F88">
+        <v>0.01213310607300254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0002379786248074331</v>
+        <v>0.133954274610037</v>
       </c>
       <c r="C89">
-        <v>-0.04199959923952751</v>
+        <v>-0.0116341662375173</v>
       </c>
       <c r="D89">
-        <v>0.2056583766556484</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2517881910089053</v>
+      </c>
+      <c r="E89">
+        <v>-0.09147194568054348</v>
+      </c>
+      <c r="F89">
+        <v>-0.008957441627250606</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.01730662508748336</v>
+        <v>0.1494500646827092</v>
       </c>
       <c r="C90">
-        <v>-0.02291166873838562</v>
+        <v>-0.02976864787888301</v>
       </c>
       <c r="D90">
-        <v>0.1791527150651768</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2679683924003257</v>
+      </c>
+      <c r="E90">
+        <v>-0.1117894046831341</v>
+      </c>
+      <c r="F90">
+        <v>-0.002219630692421373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02302353927064217</v>
+        <v>0.1202957419826406</v>
       </c>
       <c r="C91">
-        <v>-0.09618896100609578</v>
+        <v>-0.0184561427294935</v>
       </c>
       <c r="D91">
-        <v>0.02765009787201637</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01312997200129112</v>
+      </c>
+      <c r="E91">
+        <v>0.05653983949613008</v>
+      </c>
+      <c r="F91">
+        <v>-0.002638681117355076</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.001645378215332213</v>
+        <v>0.1473055590520663</v>
       </c>
       <c r="C92">
-        <v>-0.0367550405267905</v>
+        <v>-0.02192638352449351</v>
       </c>
       <c r="D92">
-        <v>0.1840313587672546</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2917893958184068</v>
+      </c>
+      <c r="E92">
+        <v>-0.1010754444286188</v>
+      </c>
+      <c r="F92">
+        <v>-0.01456926963513017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01388740473130461</v>
+        <v>0.1515279615029593</v>
       </c>
       <c r="C93">
-        <v>-0.03360549094277147</v>
+        <v>-0.02577594019375011</v>
       </c>
       <c r="D93">
-        <v>0.1917798507251075</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2678288422751304</v>
+      </c>
+      <c r="E93">
+        <v>-0.07763717084112652</v>
+      </c>
+      <c r="F93">
+        <v>0.002837475556595215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04092115917917823</v>
+        <v>0.1315689250937652</v>
       </c>
       <c r="C94">
-        <v>-0.1540627044020909</v>
+        <v>-0.02459311177994832</v>
       </c>
       <c r="D94">
-        <v>0.03449055019509361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0427751910200812</v>
+      </c>
+      <c r="E94">
+        <v>0.05809026763671438</v>
+      </c>
+      <c r="F94">
+        <v>0.03651840470326154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.02528999442334304</v>
+        <v>0.1275492165753071</v>
       </c>
       <c r="C95">
-        <v>-0.1485633388974989</v>
+        <v>-0.004454046383404797</v>
       </c>
       <c r="D95">
-        <v>-0.00247786169109167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09153948491949891</v>
+      </c>
+      <c r="E95">
+        <v>0.04660208336419731</v>
+      </c>
+      <c r="F95">
+        <v>-0.007603598879074663</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9759763972774923</v>
+        <v>0.1051821750396992</v>
       </c>
       <c r="C96">
-        <v>-0.1980862843363113</v>
+        <v>0.9879325503256141</v>
       </c>
       <c r="D96">
-        <v>0.02814747062140294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04140612965303542</v>
+      </c>
+      <c r="E96">
+        <v>0.05613777311705637</v>
+      </c>
+      <c r="F96">
+        <v>0.04249787997352144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.004225850229355819</v>
+        <v>0.1933706277916549</v>
       </c>
       <c r="C97">
-        <v>-0.1598108569793449</v>
+        <v>0.008011827779875441</v>
       </c>
       <c r="D97">
-        <v>0.1054541563819066</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0161138936389847</v>
+      </c>
+      <c r="E97">
+        <v>0.01887648123415545</v>
+      </c>
+      <c r="F97">
+        <v>-0.08942047456658191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.02554902456515405</v>
+        <v>0.2046312888397988</v>
       </c>
       <c r="C98">
-        <v>-0.1952238938648815</v>
+        <v>-0.007441870806279894</v>
       </c>
       <c r="D98">
-        <v>0.02675546236535098</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01043484732967948</v>
+      </c>
+      <c r="E98">
+        <v>-0.08549945320151438</v>
+      </c>
+      <c r="F98">
+        <v>-0.0955880173414584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.003830662736658603</v>
+        <v>0.05576533035832344</v>
       </c>
       <c r="C99">
-        <v>-0.05437473180505666</v>
+        <v>0.004489866835045123</v>
       </c>
       <c r="D99">
-        <v>0.02246295439186901</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.039365208003058</v>
+      </c>
+      <c r="E99">
+        <v>0.02313557494019217</v>
+      </c>
+      <c r="F99">
+        <v>0.001088273940868951</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.007274016746899666</v>
+        <v>0.1253701715372894</v>
       </c>
       <c r="C100">
-        <v>-0.2107594029367506</v>
+        <v>0.05327538392621306</v>
       </c>
       <c r="D100">
-        <v>-0.7814816829104966</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.345536409245127</v>
+      </c>
+      <c r="E100">
+        <v>-0.888764219466524</v>
+      </c>
+      <c r="F100">
+        <v>-0.1396562900826839</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01297076541770399</v>
+        <v>0.02750117551942934</v>
       </c>
       <c r="C101">
-        <v>-0.02860394824210055</v>
+        <v>-0.008166166330995426</v>
       </c>
       <c r="D101">
-        <v>0.01230654185985545</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03242364336433141</v>
+      </c>
+      <c r="E101">
+        <v>0.01081772256100152</v>
+      </c>
+      <c r="F101">
+        <v>-0.01156986916702805</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
